--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925E95D3-2C12-4613-B71B-EE966700E1F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B7A39-A0B0-43D8-B5F8-BA73A0B9B0AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="135" windowWidth="20385" windowHeight="8385" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>IRONDALE FASHION INTERNATIONAL LIMITED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FABRIC LIST</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -35,6 +31,10 @@
   </si>
   <si>
     <t>REMARK (s):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Able</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -181,6 +181,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -195,15 +204,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +549,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Q18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,69 +568,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -644,12 +644,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -663,12 +663,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -682,12 +682,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -701,12 +701,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -720,12 +720,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -739,12 +739,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -758,12 +758,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -777,12 +777,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -796,12 +796,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -815,12 +815,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -834,12 +834,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -853,19 +853,19 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>

--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B7A39-A0B0-43D8-B5F8-BA73A0B9B0AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CFA0A-2A3A-4E40-9152-1D73BC94C923}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="135" windowWidth="20385" windowHeight="8385" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>High Able</t>
+    <t>HIGH ABLE INVESTMENT LIMITED</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -80,48 +80,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -166,37 +129,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,6 +152,18 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,309 +521,242 @@
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="23.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,12 +766,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -886,16 +775,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:K2"/>
+    <mergeCell ref="E1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -5,22 +5,22 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CFA0A-2A3A-4E40-9152-1D73BC94C923}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36854D22-5F94-4986-9D7F-269EEFC93183}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="135" windowWidth="20385" windowHeight="8385" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="38" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FABRIC LIST</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>REMARK (s):</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH ABLE INVESTMENT LIMITED</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -138,6 +134,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -152,18 +160,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +505,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,236 +521,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">

--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36854D22-5F94-4986-9D7F-269EEFC93183}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD664F-C043-4771-9115-4C44834C84FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="135" windowWidth="20385" windowHeight="8385" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="38" r:id="rId1"/>
+    <sheet name="sheet" sheetId="38" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -85,14 +85,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -100,23 +100,23 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -146,6 +146,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -154,12 +160,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +505,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,36 +521,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>

--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD664F-C043-4771-9115-4C44834C84FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DA779-133C-B84A-BEF9-82166CEBD14C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="135" windowWidth="20385" windowHeight="8385" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="38" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -146,20 +146,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,54 +504,54 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -566,7 +566,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -581,7 +581,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -596,7 +596,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -611,7 +611,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -626,7 +626,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -641,7 +641,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -656,7 +656,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -671,7 +671,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -686,7 +686,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -701,7 +701,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -716,7 +716,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -731,7 +731,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -746,10 +746,10 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>

--- a/template/fabricquotationp1.xlsx
+++ b/template/fabricquotationp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DA779-133C-B84A-BEF9-82166CEBD14C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6257A-6B1D-49E0-865E-0F303B7B5084}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="4815" windowWidth="25425" windowHeight="14040" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="38" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>FABRIC LIST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DATE:</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -38,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -76,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,48 +80,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -146,21 +105,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,53 +456,51 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -566,7 +515,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -581,7 +530,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -596,7 +545,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -611,7 +560,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -626,7 +575,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -641,7 +590,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -656,7 +605,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -671,7 +620,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -686,7 +635,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -701,7 +650,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -716,7 +665,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -731,7 +680,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -746,12 +695,12 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -760,7 +709,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -770,8 +719,7 @@
       <c r="G21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:G4"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:G2"/>
   </mergeCells>
